--- a/data/bulk/out/AAA_f11_text.xlsx_out.xlsx
+++ b/data/bulk/out/AAA_f11_text.xlsx_out.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="168">
   <si>
     <t>UNIQUEID</t>
   </si>
@@ -320,7 +320,7 @@
     <t>Desk-based Assessment</t>
   </si>
   <si>
-    <t>2022-07-26</t>
+    <t>2022-08-12</t>
   </si>
   <si>
     <t>Yes</t>
@@ -497,22 +497,25 @@
     <t>Low</t>
   </si>
   <si>
-    <t>E00N36-11</t>
-  </si>
-  <si>
-    <t>E00N36-12</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
+    <t>Classical/Protohistoric/Pre-Islamic (North Africa)</t>
+  </si>
+  <si>
+    <t>Possible</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>House/Dwelling</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>Structure</t>
   </si>
 </sst>
 </file>
@@ -917,11 +920,9 @@
         <v>159</v>
       </c>
       <c r="X2"/>
-      <c r="Y2" t="s">
+      <c r="Y2"/>
+      <c r="Z2" t="s">
         <v>161</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>163</v>
       </c>
       <c r="AA2"/>
       <c r="AB2"/>
@@ -934,10 +935,10 @@
       </c>
       <c r="AH2"/>
       <c r="AI2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AJ2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AK2"/>
       <c r="AL2"/>
@@ -969,19 +970,19 @@
       <c r="BL2"/>
       <c r="BM2"/>
       <c r="BN2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BO2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BP2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BQ2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BR2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BS2"/>
       <c r="BT2"/>
@@ -991,13 +992,13 @@
       <c r="BX2"/>
       <c r="BY2"/>
       <c r="BZ2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CA2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CB2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CC2"/>
       <c r="CD2"/>
@@ -1074,11 +1075,9 @@
         <v>143</v>
       </c>
       <c r="X3"/>
-      <c r="Y3" t="s">
+      <c r="Y3"/>
+      <c r="Z3" t="s">
         <v>161</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>163</v>
       </c>
       <c r="AA3"/>
       <c r="AB3"/>
@@ -1211,11 +1210,9 @@
         <v>160</v>
       </c>
       <c r="X4"/>
-      <c r="Y4" t="s">
+      <c r="Y4"/>
+      <c r="Z4" t="s">
         <v>161</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>163</v>
       </c>
       <c r="AA4"/>
       <c r="AB4"/>
@@ -1348,11 +1345,9 @@
         <v>159</v>
       </c>
       <c r="X5"/>
-      <c r="Y5" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y5"/>
       <c r="Z5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA5"/>
       <c r="AB5"/>
@@ -1365,10 +1360,10 @@
       </c>
       <c r="AH5"/>
       <c r="AI5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AJ5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AK5"/>
       <c r="AL5"/>
@@ -1400,19 +1395,19 @@
       <c r="BL5"/>
       <c r="BM5"/>
       <c r="BN5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BO5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BP5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BQ5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BR5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BS5"/>
       <c r="BT5"/>
@@ -1422,13 +1417,13 @@
       <c r="BX5"/>
       <c r="BY5"/>
       <c r="BZ5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CA5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CB5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CC5"/>
       <c r="CD5"/>
@@ -1612,11 +1607,9 @@
         <v>160</v>
       </c>
       <c r="X7"/>
-      <c r="Y7" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y7"/>
       <c r="Z7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA7"/>
       <c r="AB7"/>
@@ -1660,19 +1653,19 @@
       <c r="BL7"/>
       <c r="BM7"/>
       <c r="BN7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BO7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BP7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BQ7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BR7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BS7"/>
       <c r="BT7"/>
@@ -1682,13 +1675,13 @@
       <c r="BX7"/>
       <c r="BY7"/>
       <c r="BZ7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CA7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CB7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CC7"/>
       <c r="CD7"/>
@@ -1872,11 +1865,9 @@
         <v>159</v>
       </c>
       <c r="X9"/>
-      <c r="Y9" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y9"/>
       <c r="Z9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA9"/>
       <c r="AB9"/>
@@ -1889,10 +1880,10 @@
       </c>
       <c r="AH9"/>
       <c r="AI9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AJ9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AK9"/>
       <c r="AL9"/>
@@ -1924,19 +1915,19 @@
       <c r="BL9"/>
       <c r="BM9"/>
       <c r="BN9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BO9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BP9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BQ9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BR9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BS9"/>
       <c r="BT9"/>
@@ -1946,13 +1937,13 @@
       <c r="BX9"/>
       <c r="BY9"/>
       <c r="BZ9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CA9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CB9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CC9"/>
       <c r="CD9"/>
@@ -2033,11 +2024,9 @@
         <v>160</v>
       </c>
       <c r="X10"/>
-      <c r="Y10" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y10"/>
       <c r="Z10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA10"/>
       <c r="AB10"/>
@@ -2050,10 +2039,10 @@
       </c>
       <c r="AH10"/>
       <c r="AI10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AJ10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AK10"/>
       <c r="AL10"/>
@@ -2067,7 +2056,7 @@
       <c r="AT10"/>
       <c r="AU10"/>
       <c r="AV10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AW10" t="s">
         <v>143</v>
@@ -2075,7 +2064,9 @@
       <c r="AX10"/>
       <c r="AY10"/>
       <c r="AZ10"/>
-      <c r="BA10"/>
+      <c r="BA10" t="s">
+        <v>165</v>
+      </c>
       <c r="BB10"/>
       <c r="BC10"/>
       <c r="BD10"/>
@@ -2089,19 +2080,19 @@
       <c r="BL10"/>
       <c r="BM10"/>
       <c r="BN10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BO10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BP10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BQ10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BR10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BS10"/>
       <c r="BT10"/>
@@ -2111,13 +2102,13 @@
       <c r="BX10"/>
       <c r="BY10"/>
       <c r="BZ10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CA10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CB10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CC10"/>
       <c r="CD10"/>
@@ -2194,11 +2185,9 @@
         <v>159</v>
       </c>
       <c r="X11"/>
-      <c r="Y11" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y11"/>
       <c r="Z11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA11"/>
       <c r="AB11"/>
@@ -2242,19 +2231,19 @@
       <c r="BL11"/>
       <c r="BM11"/>
       <c r="BN11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BO11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BP11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BQ11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BR11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BS11"/>
       <c r="BT11"/>
@@ -2264,13 +2253,13 @@
       <c r="BX11"/>
       <c r="BY11"/>
       <c r="BZ11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CA11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CB11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CC11"/>
       <c r="CD11"/>
@@ -2351,11 +2340,9 @@
         <v>159</v>
       </c>
       <c r="X12"/>
-      <c r="Y12" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y12"/>
       <c r="Z12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA12"/>
       <c r="AB12"/>
@@ -2368,10 +2355,10 @@
       </c>
       <c r="AH12"/>
       <c r="AI12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AJ12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AK12"/>
       <c r="AL12"/>
@@ -2385,7 +2372,7 @@
       <c r="AT12"/>
       <c r="AU12"/>
       <c r="AV12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AW12" t="s">
         <v>143</v>
@@ -2393,7 +2380,9 @@
       <c r="AX12"/>
       <c r="AY12"/>
       <c r="AZ12"/>
-      <c r="BA12"/>
+      <c r="BA12" t="s">
+        <v>165</v>
+      </c>
       <c r="BB12"/>
       <c r="BC12"/>
       <c r="BD12"/>
@@ -2407,19 +2396,19 @@
       <c r="BL12"/>
       <c r="BM12"/>
       <c r="BN12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BO12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BP12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BQ12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BR12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BS12"/>
       <c r="BT12"/>
@@ -2429,13 +2418,13 @@
       <c r="BX12"/>
       <c r="BY12"/>
       <c r="BZ12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CA12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CB12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CC12"/>
       <c r="CD12"/>
@@ -2619,11 +2608,9 @@
         <v>160</v>
       </c>
       <c r="X14"/>
-      <c r="Y14" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y14"/>
       <c r="Z14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA14"/>
       <c r="AB14"/>
@@ -2667,19 +2654,19 @@
       <c r="BL14"/>
       <c r="BM14"/>
       <c r="BN14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BO14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BP14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BQ14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BR14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BS14"/>
       <c r="BT14"/>
@@ -2689,13 +2676,13 @@
       <c r="BX14"/>
       <c r="BY14"/>
       <c r="BZ14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CA14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CB14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CC14"/>
       <c r="CD14"/>
@@ -2879,11 +2866,9 @@
         <v>160</v>
       </c>
       <c r="X16"/>
-      <c r="Y16" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y16"/>
       <c r="Z16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA16"/>
       <c r="AB16"/>
@@ -2896,10 +2881,10 @@
       </c>
       <c r="AH16"/>
       <c r="AI16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AJ16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AK16"/>
       <c r="AL16"/>
@@ -2931,19 +2916,19 @@
       <c r="BL16"/>
       <c r="BM16"/>
       <c r="BN16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BO16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BP16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BQ16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BR16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BS16"/>
       <c r="BT16"/>
@@ -2953,13 +2938,13 @@
       <c r="BX16"/>
       <c r="BY16"/>
       <c r="BZ16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CA16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CB16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CC16"/>
       <c r="CD16"/>
@@ -3143,11 +3128,9 @@
         <v>160</v>
       </c>
       <c r="X18"/>
-      <c r="Y18" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y18"/>
       <c r="Z18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA18"/>
       <c r="AB18"/>
@@ -3191,19 +3174,19 @@
       <c r="BL18"/>
       <c r="BM18"/>
       <c r="BN18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BO18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BP18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BQ18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BR18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BS18"/>
       <c r="BT18"/>
@@ -3213,13 +3196,13 @@
       <c r="BX18"/>
       <c r="BY18"/>
       <c r="BZ18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CA18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CB18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CC18"/>
       <c r="CD18"/>
@@ -3403,11 +3386,9 @@
         <v>159</v>
       </c>
       <c r="X20"/>
-      <c r="Y20" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y20"/>
       <c r="Z20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA20"/>
       <c r="AB20"/>
@@ -3451,19 +3432,19 @@
       <c r="BL20"/>
       <c r="BM20"/>
       <c r="BN20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BO20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BP20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BQ20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BR20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BS20"/>
       <c r="BT20"/>
@@ -3473,13 +3454,13 @@
       <c r="BX20"/>
       <c r="BY20"/>
       <c r="BZ20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CA20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CB20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CC20"/>
       <c r="CD20"/>
@@ -3556,11 +3537,9 @@
         <v>159</v>
       </c>
       <c r="X21"/>
-      <c r="Y21" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y21"/>
       <c r="Z21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA21"/>
       <c r="AB21"/>
@@ -3573,10 +3552,10 @@
       </c>
       <c r="AH21"/>
       <c r="AI21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AJ21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AK21"/>
       <c r="AL21"/>
@@ -3608,19 +3587,19 @@
       <c r="BL21"/>
       <c r="BM21"/>
       <c r="BN21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BO21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BP21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BQ21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BR21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BS21"/>
       <c r="BT21"/>
@@ -3630,13 +3609,13 @@
       <c r="BX21"/>
       <c r="BY21"/>
       <c r="BZ21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CA21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CB21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CC21"/>
       <c r="CD21"/>
